--- a/Necklace/LUMW.xlsx
+++ b/Necklace/LUMW.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5999B6F-D4FF-44FD-9A8D-6922E88A9618}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Desktop\PCB_Projects\Necklace\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F001B339-7166-4070-87CD-2D42EB27534C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="16200" windowHeight="11835" xr2:uid="{1D702901-0F90-41FA-8238-C753EF1413A5}"/>
+    <workbookView minimized="1" xWindow="-25725" yWindow="-75" windowWidth="21600" windowHeight="11835" xr2:uid="{1D702901-0F90-41FA-8238-C753EF1413A5}"/>
   </bookViews>
   <sheets>
     <sheet name="LUMW" sheetId="1" r:id="rId1"/>
@@ -495,7 +500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D35B03C-F579-43A6-BCB3-FC61B9387EC3}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
